--- a/tudo_do_lar/static/planilhas/relatorio estoque.xlsx
+++ b/tudo_do_lar/static/planilhas/relatorio estoque.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -462,6 +462,11 @@
       <c r="B3" t="n">
         <v>75</v>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -472,6 +477,11 @@
       <c r="B4" t="n">
         <v>61</v>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -482,6 +492,11 @@
       <c r="B5" t="n">
         <v>34</v>
       </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -492,6 +507,11 @@
       <c r="B6" t="n">
         <v>60</v>
       </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -502,6 +522,11 @@
       <c r="B7" t="n">
         <v>23</v>
       </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2961,6 +2986,11 @@
       </c>
       <c r="B253" t="n">
         <v>174</v>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
       </c>
     </row>
   </sheetData>
